--- a/biology/Histoire de la zoologie et de la botanique/Musée_zoologique_de_Moscou/Musée_zoologique_de_Moscou.xlsx
+++ b/biology/Histoire de la zoologie et de la botanique/Musée_zoologique_de_Moscou/Musée_zoologique_de_Moscou.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Mus%C3%A9e_zoologique_de_Moscou</t>
+          <t>Musée_zoologique_de_Moscou</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le musée zoologique de Moscou, officiellement musée zoologique de l'université d'État de Moscou (Зоологический музей Московского государственного университета), est l'un des musées d'Histoire naturelle parmi les plus importants de Russie et le deuxième après celui de Saint-Pétersbourg[1]. 
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le musée zoologique de Moscou, officiellement musée zoologique de l'université d'État de Moscou (Зоологический музей Московского государственного университета), est l'un des musées d'Histoire naturelle parmi les plus importants de Russie et le deuxième après celui de Saint-Pétersbourg. 
 Il se trouve au 6 rue Bolchaïa Nikitskaïa à Moscou. Environ 200 000 visiteurs le fréquentent chaque année.
 </t>
         </is>
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Mus%C3%A9e_zoologique_de_Moscou</t>
+          <t>Musée_zoologique_de_Moscou</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,7 +524,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Plus de 4 600 000 de pièces de collection sont conservées parmi lesquelles 10 000 sont présentées. Constrairement au musée zoologique de Saint-Pétersbourg, il ne présente que des spécimens modernes, les fossiles et pièces paléontologiques ont été versés au musée paléontologique de Moscou pour sa fondation en 1987. Le musée conserve la collection entomologique d'Édouard Ménétries (1802-1861), ancien conservateur français du département entomologique du musée zoologique de Saint-Pétersbourg.
 Il comprend un terrarium, exposition de reptiles vivants.
@@ -527,7 +541,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Mus%C3%A9e_zoologique_de_Moscou</t>
+          <t>Musée_zoologique_de_Moscou</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -545,7 +559,9 @@
           <t>Historique</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Le musée a été fondé en 1791 en tant que « cabinet d'histoire naturelle » de l'université impériale de Moscou. Le premier catalogue de ses pièces de collection a été rédigé par Johann Fischer von Waldheim en 1806-1807. Un deuxième catalogue est édité en 1822. Le musée est alors géré par la Société des naturalistes de Moscou dont le siège est dans un autre lieu. Il devient autonome en tant que musée zoologique en 1861.
 Il est ouvert au public en 1866 et installé dans un nouvel édifice spécialement construit à cet effet en 1898-1902 rue Bolchaïa Nikitskaïa, selon les plans de Constantin Bykovski (1841-1906).
@@ -560,7 +576,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Mus%C3%A9e_zoologique_de_Moscou</t>
+          <t>Musée_zoologique_de_Moscou</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -578,13 +594,15 @@
           <t>Directeurs</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">
 1802—1832 : Gotthelf Fischer von Waldheim
 1832—1834 : Alexandre Fischer von Waldheim
 1834—1840 : Alexeï Léontiévitch Lovetski
-1840—1858 : Charles Roulier[2]
+1840—1858 : Charles Roulier
 1858—1862 : Karl Ivanovitch Renard
 1863—1896 : Anatoli Bogdanov
 1896—1904 : Alexandre Tikhomirov
@@ -608,7 +626,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Mus%C3%A9e_zoologique_de_Moscou</t>
+          <t>Musée_zoologique_de_Moscou</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -626,7 +644,9 @@
           <t>Publication</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">Les Archives du musée zoologique de l'université de Moscou sont publiées à partir de 1934.
 </t>
